--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13428" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Approximate Error" sheetId="1" r:id="rId1"/>
+    <sheet name="True Error" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Bisection Function A</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>Modified Secant</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -211,7 +215,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>'Approximate Error'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -246,7 +250,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>'Approximate Error'!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -276,7 +280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:f>'Approximate Error'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -316,7 +320,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>'Approximate Error'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -351,7 +355,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$22</c:f>
+              <c:f>'Approximate Error'!$A$13:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -390,7 +394,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$22</c:f>
+              <c:f>'Approximate Error'!$B$13:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -439,7 +443,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
+              <c:f>'Approximate Error'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -474,7 +478,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$26:$A$30</c:f>
+              <c:f>'Approximate Error'!$A$26:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -498,7 +502,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$30</c:f>
+              <c:f>'Approximate Error'!$B$26:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -532,7 +536,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$32</c:f>
+              <c:f>'Approximate Error'!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -567,7 +571,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$34:$A$39</c:f>
+              <c:f>'Approximate Error'!$A$34:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -594,7 +598,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$B$39</c:f>
+              <c:f>'Approximate Error'!$B$34:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -631,7 +635,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$41</c:f>
+              <c:f>'Approximate Error'!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -666,7 +670,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>'Approximate Error'!$A$43:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -705,7 +709,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:f>'Approximate Error'!$B$43:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1069,7 +1073,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>'Approximate Error'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1104,7 +1108,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>'Approximate Error'!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1134,7 +1138,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:f>'Approximate Error'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1174,7 +1178,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>'Approximate Error'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1209,7 +1213,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$22</c:f>
+              <c:f>'Approximate Error'!$A$13:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1248,7 +1252,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$22</c:f>
+              <c:f>'Approximate Error'!$B$13:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1297,7 +1301,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
+              <c:f>'Approximate Error'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1332,7 +1336,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$26:$A$30</c:f>
+              <c:f>'Approximate Error'!$A$26:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1356,7 +1360,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$30</c:f>
+              <c:f>'Approximate Error'!$B$26:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1390,7 +1394,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$32</c:f>
+              <c:f>'Approximate Error'!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1425,7 +1429,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$34:$A$39</c:f>
+              <c:f>'Approximate Error'!$A$34:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1452,7 +1456,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$B$39</c:f>
+              <c:f>'Approximate Error'!$B$34:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1489,7 +1493,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$41</c:f>
+              <c:f>'Approximate Error'!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1524,7 +1528,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>'Approximate Error'!$A$43:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1563,7 +1567,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:f>'Approximate Error'!$B$43:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2043,7 +2047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
+              <c:f>'True Error'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2078,7 +2082,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:f>'True Error'!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2099,7 +2103,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$6</c:f>
+              <c:f>'True Error'!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2130,7 +2134,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$8</c:f>
+              <c:f>'True Error'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2165,7 +2169,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$9:$A$10</c:f>
+              <c:f>'True Error'!$A$9:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2180,7 +2184,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$9:$B$10</c:f>
+              <c:f>'True Error'!$B$9:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2205,7 +2209,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$12</c:f>
+              <c:f>'True Error'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2240,7 +2244,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$13:$A$14</c:f>
+              <c:f>'True Error'!$A$13:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2255,7 +2259,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$B$14</c:f>
+              <c:f>'True Error'!$B$13:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2280,7 +2284,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$16</c:f>
+              <c:f>'True Error'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2315,7 +2319,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$17:$A$18</c:f>
+              <c:f>'True Error'!$A$17:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2330,7 +2334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$17:$B$18</c:f>
+              <c:f>'True Error'!$B$17:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2355,7 +2359,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$20</c:f>
+              <c:f>'True Error'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2390,7 +2394,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$21:$A$22</c:f>
+              <c:f>'True Error'!$A$21:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2405,7 +2409,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$21:$B$22</c:f>
+              <c:f>'True Error'!$B$21:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2868,7 +2872,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
+              <c:f>'True Error'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2903,7 +2907,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:f>'True Error'!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2924,7 +2928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$6</c:f>
+              <c:f>'True Error'!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2955,7 +2959,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$8</c:f>
+              <c:f>'True Error'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2990,7 +2994,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$9:$A$10</c:f>
+              <c:f>'True Error'!$A$9:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3005,7 +3009,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$9:$B$10</c:f>
+              <c:f>'True Error'!$B$9:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3030,7 +3034,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$12</c:f>
+              <c:f>'True Error'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3065,7 +3069,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$13:$A$14</c:f>
+              <c:f>'True Error'!$A$13:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3080,7 +3084,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$B$14</c:f>
+              <c:f>'True Error'!$B$13:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3105,7 +3109,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$16</c:f>
+              <c:f>'True Error'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3140,7 +3144,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$17:$A$18</c:f>
+              <c:f>'True Error'!$A$17:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3155,7 +3159,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$17:$B$18</c:f>
+              <c:f>'True Error'!$B$17:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3180,7 +3184,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$20</c:f>
+              <c:f>'True Error'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3215,7 +3219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$21:$A$22</c:f>
+              <c:f>'True Error'!$A$21:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3230,7 +3234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$21:$B$22</c:f>
+              <c:f>'True Error'!$B$21:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5821,13 +5825,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>217587</xdr:colOff>
+      <xdr:colOff>176024</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>78058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>475130</xdr:colOff>
+      <xdr:colOff>433567</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:to>
@@ -6274,7 +6278,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6658,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6798,4 +6802,102 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.36328125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13428" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13428"/>
   </bookViews>
   <sheets>
     <sheet name="Approximate Error" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Bisection Function A</t>
   </si>
@@ -65,6 +65,30 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Root 1</t>
+  </si>
+  <si>
+    <t>Root 2</t>
+  </si>
+  <si>
+    <t>Bisection</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Secant</t>
+  </si>
+  <si>
+    <t>False Position</t>
+  </si>
+  <si>
+    <t>Root 3</t>
+  </si>
+  <si>
+    <t>False Poisiton</t>
   </si>
 </sst>
 </file>
@@ -159,7 +183,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> % Error, Function A - Logrithmic Scale</a:t>
+              <a:t> % Error, Function A Root 1- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Logarithmic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scale</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -215,7 +247,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$1</c:f>
+              <c:f>'Approximate Error'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -250,7 +282,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$3:$A$9</c:f>
+              <c:f>'Approximate Error'!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -280,7 +312,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$3:$B$9</c:f>
+              <c:f>'Approximate Error'!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -320,7 +352,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$11</c:f>
+              <c:f>'Approximate Error'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -355,7 +387,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$13:$A$22</c:f>
+              <c:f>'Approximate Error'!$A$14:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -394,7 +426,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$13:$B$22</c:f>
+              <c:f>'Approximate Error'!$B$14:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -443,7 +475,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$24</c:f>
+              <c:f>'Approximate Error'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -478,7 +510,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$26:$A$30</c:f>
+              <c:f>'Approximate Error'!$A$27:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -502,7 +534,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$26:$B$30</c:f>
+              <c:f>'Approximate Error'!$B$27:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -536,7 +568,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$32</c:f>
+              <c:f>'Approximate Error'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -571,7 +603,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$34:$A$39</c:f>
+              <c:f>'Approximate Error'!$A$35:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -598,7 +630,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$34:$B$39</c:f>
+              <c:f>'Approximate Error'!$B$35:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -635,7 +667,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$41</c:f>
+              <c:f>'Approximate Error'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -670,7 +702,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$43:$A$52</c:f>
+              <c:f>'Approximate Error'!$A$44:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -709,7 +741,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$43:$B$52</c:f>
+              <c:f>'Approximate Error'!$B$44:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1017,7 +1049,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> % Error, Function A - Normal Scale</a:t>
+              <a:t> % Error, Function A Root 1- Normal Scale</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1073,7 +1105,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$1</c:f>
+              <c:f>'Approximate Error'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1108,7 +1140,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$3:$A$9</c:f>
+              <c:f>'Approximate Error'!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1138,7 +1170,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$3:$B$9</c:f>
+              <c:f>'Approximate Error'!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1178,7 +1210,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$11</c:f>
+              <c:f>'Approximate Error'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1213,7 +1245,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$13:$A$22</c:f>
+              <c:f>'Approximate Error'!$A$14:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1252,7 +1284,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$13:$B$22</c:f>
+              <c:f>'Approximate Error'!$B$14:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1301,7 +1333,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$24</c:f>
+              <c:f>'Approximate Error'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1336,7 +1368,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$26:$A$30</c:f>
+              <c:f>'Approximate Error'!$A$27:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1360,7 +1392,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$26:$B$30</c:f>
+              <c:f>'Approximate Error'!$B$27:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1394,7 +1426,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$32</c:f>
+              <c:f>'Approximate Error'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1429,7 +1461,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$34:$A$39</c:f>
+              <c:f>'Approximate Error'!$A$35:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1456,7 +1488,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$34:$B$39</c:f>
+              <c:f>'Approximate Error'!$B$35:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1493,7 +1525,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Approximate Error'!$A$41</c:f>
+              <c:f>'Approximate Error'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1528,7 +1560,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$A$43:$A$52</c:f>
+              <c:f>'Approximate Error'!$A$44:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1567,7 +1599,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Approximate Error'!$B$43:$B$52</c:f>
+              <c:f>'Approximate Error'!$B$44:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1980,6 +2012,2482 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Approximate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> % Error, Function A Root 2 - Normal Scale</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bisection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$3:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$3:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6666669999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2258064000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6393442000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1300810000000008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-A378-40FC-ABD1-18399BD90E29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$10:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$10:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4.0816064999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9760164000000003E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-A378-40FC-ABD1-18399BD90E29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$14:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$14:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.254746E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2476721E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.9415990000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-A378-40FC-ABD1-18399BD90E29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>False Position</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$20:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$20:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.0467525E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9154992999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-A378-40FC-ABD1-18399BD90E29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modified Secant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$24:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$24:$S$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4.0872051999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4329373E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-A378-40FC-ABD1-18399BD90E29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366208560"/>
+        <c:axId val="366213480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366208560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366213480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366213480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366208560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Approximate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> % Error, Function A Root 2 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Logarithmic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scale</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bisection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$3:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$3:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6666669999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2258064000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6393442000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1300810000000008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E33-41BB-B703-096D8BEBE1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$10:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$10:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4.0816064999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9760164000000003E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E33-41BB-B703-096D8BEBE1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$14:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$14:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.254746E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2476721E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.9415990000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E33-41BB-B703-096D8BEBE1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>False Position</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$20:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$20:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.0467525E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9154992999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5E33-41BB-B703-096D8BEBE1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modified Secant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$R$24:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$S$24:$S$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4.0872051999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4329373E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5E33-41BB-B703-096D8BEBE1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366208560"/>
+        <c:axId val="366213480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366208560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366213480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366213480"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366208560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Approximate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> % Error, Function A Root 3 - Normal Scale</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bisection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$68:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$68:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.6666669999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4482760000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7543860000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6956519999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1321-4690-8BE0-2460161C8AD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$74:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$74:$C$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.41558329999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20225563999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12571092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3645239999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9543040000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1321-4690-8BE0-2460161C8AD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$81:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$81:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13567894999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8470360000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.296955E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9810734E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1321-4690-8BE0-2460161C8AD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>False Position</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$87:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$87:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.4449910000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5781983999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0647263E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1321-4690-8BE0-2460161C8AD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modified Secant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$92:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$92:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18096602000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10707713000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2136769999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3980186000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1321-4690-8BE0-2460161C8AD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366208560"/>
+        <c:axId val="366213480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366208560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366213480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366213480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366208560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Approximate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> % Error, Function A Root 3 - Logarithmic Scale</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bisection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$68:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$68:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.6666669999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4482760000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7543860000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6956519999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82D4-42CB-8536-00AD9A2CAF58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$74:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$74:$C$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.41558329999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20225563999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12571092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3645239999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9543040000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82D4-42CB-8536-00AD9A2CAF58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$81:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$81:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13567894999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8470360000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.296955E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9810734E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-82D4-42CB-8536-00AD9A2CAF58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>False Position</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$87:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$87:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.4449910000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5781983999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0647263E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-82D4-42CB-8536-00AD9A2CAF58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Approximate Error'!$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modified Secant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$B$92:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Approximate Error'!$C$92:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18096602000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10707713000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2136769999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3980186000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-82D4-42CB-8536-00AD9A2CAF58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366208560"/>
+        <c:axId val="366213480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366208560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366213480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366213480"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366208560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>True</a:t>
             </a:r>
             <a:r>
@@ -2770,7 +5278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5824,16 +8332,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>176024</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>78058</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>56287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>433567</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281167</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:rowOff>181215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5860,15 +8368,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6405</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>481662</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>263948</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>119166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5891,6 +8399,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>293913</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>21769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7D2040-1005-467D-8690-4CBE70BF67F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A695DC-F099-4F75-A3CA-BFD9B062E7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1F7905-2943-425C-9C2E-B7720F782264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941C098C-71F2-4E67-B54C-E10B5AA27E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6275,381 +8933,684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="S3">
+        <v>0.14285714999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>0.33333333999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="S4">
+        <v>6.6666669999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="S5">
+        <v>3.2258064000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>9.0909089999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="S6">
+        <v>1.6393442000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>4.3478259999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="S7">
+        <v>8.1300810000000008E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>2.1276594999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1.0752688E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>5.3475937000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>4.0816064999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>8.9760164000000003E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1.1111115</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>3.254746E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0.66602795999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1.2476721E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>0.78317539999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1.9415990000000001E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>1.0375258000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1.8744813</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>13.344193000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="R19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0.85922419999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>2.0467525E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0.17581690999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2.9154992999999999E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>1.0774301999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>10</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>4.056923E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="R23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>4.0872051999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1.4329373E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>1</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>2</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>0.39609381999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>3</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>0.32599961999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>8.0962080000000006E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>5</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>6.0268756999999999E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>0.10201422</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>0.39609369999999999</v>
+        <v>0.10201422</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>0.15169567</v>
+        <v>0.39609369999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>4.5966380000000001E-2</v>
+        <v>0.15169567</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>1.2924447E-2</v>
+        <v>4.5966380000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1.2924447E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>3.5569216E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>1</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>1.0882130999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>0.62229632999999995</v>
+        <v>1.0882130999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>0.70624540000000002</v>
+        <v>0.62229632999999995</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>0.87081253999999997</v>
+        <v>0.70624540000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>1.2820442000000001</v>
+        <v>0.87081253999999997</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>3.6488235000000002</v>
+        <v>1.2820442000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>2.0551027999999998</v>
+        <v>3.6488235000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>0.43048635000000002</v>
+        <v>2.0551027999999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>5.8485365999999997E-2</v>
+        <v>0.43048635000000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>5.8485365999999997E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>10</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>1.0102278000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>6.6666669999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>3.4482760000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>1.7543860000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>8.6956519999999999E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0.41558329999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0.20225563999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0.12571092</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>5.3645239999999997E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>9.9543040000000006E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0.13567894999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>9.8470360000000007E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>1.296955E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>3.9810734E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>4.4449910000000002E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>1.5781983999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>5.0647263E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0.18096602000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>0.10707713000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>4.2136769999999997E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>7.3980186000000003E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6662,7 +9623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
